--- a/_assets/includes/documents/FormatoPrecio.xlsx
+++ b/_assets/includes/documents/FormatoPrecio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro.martinez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.3\wwwroot\TG_PHP\_assets\includes\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F711158E-9DB9-4D3F-9E49-8E8D2359F01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A40A838-03A5-4494-A16E-CEA5E996A046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1920" windowWidth="21600" windowHeight="11235" xr2:uid="{57A7AD68-8712-49E5-8AAC-8C9DF7ECE3A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57A7AD68-8712-49E5-8AAC-8C9DF7ECE3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,56 +1352,56 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97394460-1E87-45F2-A434-F65D90B57D24}">
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98:F108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1756,8 +1756,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1864,8 +1864,8 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,8 +2009,8 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2128,8 +2128,8 @@
       <c r="A42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="93"/>
-      <c r="F42" s="94"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
       <c r="G42" s="64"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,9 +2203,9 @@
       <c r="G47" s="56"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="90"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="92"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="100"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="str">
@@ -2244,8 +2244,8 @@
       <c r="A55" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="93"/>
-      <c r="F55" s="94"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97"/>
       <c r="G55" s="64"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,9 +2297,9 @@
       <c r="G59" s="56"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="90"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="92"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="100"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="str">
@@ -2355,8 +2355,8 @@
       <c r="A68" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="93"/>
-      <c r="F68" s="94"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="97"/>
       <c r="G68" s="64"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,9 +2394,9 @@
       <c r="G71" s="56"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="90"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="92"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="100"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="str">
@@ -2443,8 +2443,8 @@
       <c r="A80" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="95"/>
-      <c r="F80" s="96"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="102"/>
       <c r="G80" s="71"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2574,9 +2574,9 @@
       <c r="G89" s="70"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E90" s="90"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="92"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="100"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="str">
@@ -2627,8 +2627,8 @@
       <c r="A97" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="97"/>
-      <c r="F97" s="98"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="89"/>
       <c r="G97" s="71"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,8 +2831,8 @@
       <c r="A116" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E116" s="88"/>
-      <c r="F116" s="89"/>
+      <c r="E116" s="103"/>
+      <c r="F116" s="104"/>
       <c r="G116" s="64"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -2878,15 +2878,21 @@
       <c r="G119" s="70"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E120" s="90"/>
-      <c r="F120" s="91"/>
-      <c r="G120" s="92"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="99"/>
+      <c r="G120" s="100"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="str">
         <f>A115</f>
         <v>AHUMADA</v>
       </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
       <c r="E121" s="32"/>
       <c r="F121" s="33"/>
       <c r="G121" s="34"/>
@@ -2913,8 +2919,8 @@
       <c r="A127" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E127" s="88"/>
-      <c r="F127" s="89"/>
+      <c r="E127" s="103"/>
+      <c r="F127" s="104"/>
       <c r="G127" s="35"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,9 +3036,9 @@
       <c r="G135" s="56"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E136" s="90"/>
-      <c r="F136" s="91"/>
-      <c r="G136" s="92"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="99"/>
+      <c r="G136" s="100"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="str">
@@ -3071,8 +3077,8 @@
       <c r="A143" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E143" s="88"/>
-      <c r="F143" s="89"/>
+      <c r="E143" s="103"/>
+      <c r="F143" s="104"/>
       <c r="G143" s="64"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3188,9 +3194,9 @@
       <c r="G151" s="70"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E152" s="90"/>
-      <c r="F152" s="91"/>
-      <c r="G152" s="92"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="99"/>
+      <c r="G152" s="100"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="str">
@@ -3229,8 +3235,8 @@
       <c r="A159" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E159" s="93"/>
-      <c r="F159" s="94"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="97"/>
       <c r="G159" s="64"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,9 +3316,9 @@
       <c r="G165" s="56"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E166" s="90"/>
-      <c r="F166" s="91"/>
-      <c r="G166" s="92"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="99"/>
+      <c r="G166" s="100"/>
     </row>
     <row r="167" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A167" s="80" t="str">
@@ -3357,8 +3363,8 @@
       <c r="A173" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E173" s="93"/>
-      <c r="F173" s="94"/>
+      <c r="E173" s="96"/>
+      <c r="F173" s="97"/>
       <c r="G173" s="64"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,9 +3424,9 @@
       <c r="G177" s="56"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E178" s="90"/>
-      <c r="F178" s="91"/>
-      <c r="G178" s="92"/>
+      <c r="E178" s="98"/>
+      <c r="F178" s="99"/>
+      <c r="G178" s="100"/>
     </row>
     <row r="179" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A179" s="80" t="str">
@@ -3465,8 +3471,8 @@
       <c r="A185" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E185" s="93"/>
-      <c r="F185" s="94"/>
+      <c r="E185" s="96"/>
+      <c r="F185" s="97"/>
       <c r="G185" s="64"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -3540,9 +3546,9 @@
       <c r="G190" s="56"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E191" s="90"/>
-      <c r="F191" s="91"/>
-      <c r="G191" s="92"/>
+      <c r="E191" s="98"/>
+      <c r="F191" s="99"/>
+      <c r="G191" s="100"/>
     </row>
     <row r="192" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A192" s="80" t="str">
@@ -3587,8 +3593,8 @@
       <c r="A198" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E198" s="93"/>
-      <c r="F198" s="94"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="97"/>
       <c r="G198" s="64"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -3648,9 +3654,9 @@
       <c r="G202" s="56"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E203" s="90"/>
-      <c r="F203" s="91"/>
-      <c r="G203" s="92"/>
+      <c r="E203" s="98"/>
+      <c r="F203" s="99"/>
+      <c r="G203" s="100"/>
     </row>
     <row r="204" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A204" s="80" t="str">
@@ -3689,8 +3695,8 @@
       <c r="A210" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E210" s="93"/>
-      <c r="F210" s="94"/>
+      <c r="E210" s="96"/>
+      <c r="F210" s="97"/>
       <c r="G210" s="64"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -3750,9 +3756,9 @@
       <c r="G214" s="56"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E215" s="90"/>
-      <c r="F215" s="91"/>
-      <c r="G215" s="92"/>
+      <c r="E215" s="98"/>
+      <c r="F215" s="99"/>
+      <c r="G215" s="100"/>
     </row>
     <row r="216" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A216" s="80" t="str">
@@ -3791,8 +3797,8 @@
       <c r="A222" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E222" s="93"/>
-      <c r="F222" s="94"/>
+      <c r="E222" s="96"/>
+      <c r="F222" s="97"/>
       <c r="G222" s="64"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,9 +3850,9 @@
       <c r="G226" s="56"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E227" s="90"/>
-      <c r="F227" s="91"/>
-      <c r="G227" s="92"/>
+      <c r="E227" s="98"/>
+      <c r="F227" s="99"/>
+      <c r="G227" s="100"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="str">
@@ -3886,8 +3892,8 @@
       <c r="A234" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E234" s="88"/>
-      <c r="F234" s="89"/>
+      <c r="E234" s="103"/>
+      <c r="F234" s="104"/>
       <c r="G234" s="64"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -3931,9 +3937,9 @@
       <c r="G238" s="56"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E239" s="90"/>
-      <c r="F239" s="91"/>
-      <c r="G239" s="92"/>
+      <c r="E239" s="98"/>
+      <c r="F239" s="99"/>
+      <c r="G239" s="100"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="str">
@@ -3952,6 +3958,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E203:G203"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E215:G215"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="E185:F185"/>
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E14:F14"/>
@@ -3964,26 +3990,6 @@
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E239:G239"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E203:G203"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E215:G215"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E227:G227"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
